--- a/Data/Master_Data/Jannik_Vestergaard.xlsx
+++ b/Data/Master_Data/Jannik_Vestergaard.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43324</v>
+        <v>43687</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -670,31 +670,31 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>30.4</v>
+        <v>16.4</v>
       </c>
       <c r="V2">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="X2">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC2">
         <v>0.1</v>
@@ -703,48 +703,48 @@
         <v>0.1</v>
       </c>
       <c r="AE2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>-80</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43330</v>
+        <v>43694</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -789,63 +789,72 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>-1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK3">
-        <v>-60</v>
+        <v>-200</v>
       </c>
       <c r="AL3">
-        <v>-50</v>
+        <v>-240</v>
       </c>
       <c r="AM3">
-        <v>-90</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43337</v>
+        <v>43701</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -860,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -872,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -887,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -899,32 +908,32 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5.2</v>
+        <v>22.6</v>
       </c>
       <c r="V4">
-        <v>0.8</v>
+        <v>20.8</v>
       </c>
       <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>5.3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>4</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>11</v>
-      </c>
       <c r="AC4">
         <v>0</v>
       </c>
@@ -935,36 +944,36 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>-10</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43344</v>
+        <v>43708</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -979,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1006,49 +1015,49 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>28.4</v>
+        <v>56.2</v>
       </c>
       <c r="V5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X5">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1057,33 +1066,33 @@
         <v>27</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK5">
-        <v>-90</v>
+        <v>-150</v>
       </c>
       <c r="AL5">
-        <v>-30</v>
+        <v>-250</v>
       </c>
       <c r="AM5">
-        <v>40</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43360</v>
+        <v>43722</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1098,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1125,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1137,72 +1146,72 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="V6">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="AL6">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="AM6">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43365</v>
+        <v>43728</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1217,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1226,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1244,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1259,40 +1268,40 @@
         <v>3</v>
       </c>
       <c r="U7">
-        <v>31</v>
+        <v>14.2</v>
       </c>
       <c r="V7">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X7">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>3</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>12</v>
-      </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1301,27 +1310,27 @@
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AJ7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>-300</v>
+        <v>130</v>
       </c>
       <c r="AL7">
-        <v>-260</v>
+        <v>50</v>
       </c>
       <c r="AM7">
-        <v>-230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43372</v>
+        <v>43736</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1330,28 +1339,28 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1378,41 +1387,41 @@
         <v>2</v>
       </c>
       <c r="U8">
-        <v>17.4</v>
+        <v>14.2</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>23.1</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>3.7</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>17</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>13</v>
       </c>
-      <c r="X8">
-        <v>3.4</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>20</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>14</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
@@ -1420,16 +1429,16 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ8">
         <v>-1</v>
       </c>
       <c r="AK8">
-        <v>-190</v>
+        <v>-140</v>
       </c>
       <c r="AL8">
-        <v>-130</v>
+        <v>-50</v>
       </c>
       <c r="AM8">
         <v>-120</v>
@@ -1437,10 +1446,10 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
-        <v>43380</v>
+        <v>43744</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1509,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1550,22 +1559,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>43393</v>
+        <v>43757</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1574,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1592,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1604,55 +1613,64 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK10">
-        <v>20</v>
+        <v>-190</v>
       </c>
       <c r="AL10">
-        <v>60</v>
+        <v>-130</v>
       </c>
       <c r="AM10">
-        <v>80</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1660,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>43400</v>
+        <v>43763</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1714,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1726,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1738,31 +1756,40 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="AL11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1770,16 +1797,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>43408</v>
+        <v>43771</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1797,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1812,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1824,43 +1851,52 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="AJ12">
         <v>-2</v>
@@ -1880,16 +1916,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>43414</v>
+        <v>43778</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1904,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1934,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -1958,39 +1994,48 @@
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>10</v>
+        <v>-90</v>
       </c>
       <c r="AL13">
-        <v>-40</v>
+        <v>-130</v>
       </c>
       <c r="AM13">
-        <v>-40</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>43428</v>
+        <v>43792</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2062,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2080,36 +2125,36 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>-1</v>
       </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
       <c r="AK14">
-        <v>20</v>
+        <v>-140</v>
       </c>
       <c r="AL14">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="AM14">
-        <v>70</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>43435</v>
+        <v>43799</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2124,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2142,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2154,22 +2199,22 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>2</v>
@@ -2178,19 +2223,10 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>14</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2199,27 +2235,27 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>-150</v>
+        <v>10</v>
       </c>
       <c r="AL15">
-        <v>-250</v>
+        <v>-40</v>
       </c>
       <c r="AM15">
-        <v>-150</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>43439</v>
+        <v>43803</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2291,13 +2327,13 @@
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2309,36 +2345,36 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>-140</v>
+        <v>130</v>
       </c>
       <c r="AL16">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="AM16">
-        <v>-120</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>43442</v>
+        <v>43807</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2359,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2371,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2383,87 +2419,78 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>5</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0.1</v>
+        <v>13</v>
       </c>
       <c r="AF17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI17">
         <v>-1</v>
       </c>
       <c r="AJ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AL17">
-        <v>-40</v>
+        <v>20</v>
       </c>
       <c r="AM17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
-        <v>43450</v>
+        <v>43813</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2478,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2490,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2502,81 +2529,72 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>-90</v>
+        <v>120</v>
       </c>
       <c r="AL18">
-        <v>-90</v>
+        <v>50</v>
       </c>
       <c r="AM18">
-        <v>-90</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>43456</v>
+        <v>43820</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2591,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2609,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2621,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>3</v>
@@ -2645,57 +2663,48 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>10</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AF19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <v>2</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AL19">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AM19">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
-        <v>43461</v>
+        <v>43825</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2710,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2728,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2740,72 +2749,63 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>2</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>19</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
         <v>-1</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
       <c r="AK20">
-        <v>120</v>
+        <v>-180</v>
       </c>
       <c r="AL20">
-        <v>50</v>
+        <v>-190</v>
       </c>
       <c r="AM20">
-        <v>-40</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>43464</v>
+        <v>43827</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2895,36 +2895,36 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>-190</v>
+        <v>30</v>
       </c>
       <c r="AL21">
-        <v>-190</v>
+        <v>-100</v>
       </c>
       <c r="AM21">
-        <v>-210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>43467</v>
+        <v>43831</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2972,78 +2972,69 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>6</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
         <v>-1</v>
       </c>
       <c r="AK22">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="AL22">
-        <v>-190</v>
+        <v>-50</v>
       </c>
       <c r="AM22">
-        <v>-140</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>43477</v>
+        <v>43841</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3061,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3076,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3088,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>2</v>
@@ -3112,25 +3103,16 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>11</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF23">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <v>1</v>
@@ -3150,25 +3132,25 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
-        <v>43484</v>
+        <v>43848</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3183,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3195,35 +3177,35 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>3</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>26.2</v>
-      </c>
-      <c r="V24">
-        <v>0.3</v>
-      </c>
-      <c r="W24">
-        <v>18</v>
-      </c>
-      <c r="X24">
-        <v>4.5</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
       <c r="Z24">
         <v>2</v>
       </c>
@@ -3231,48 +3213,39 @@
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>8</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK24">
+        <v>-40</v>
+      </c>
+      <c r="AL24">
+        <v>-150</v>
+      </c>
+      <c r="AM24">
         <v>-90</v>
-      </c>
-      <c r="AL24">
-        <v>-130</v>
-      </c>
-      <c r="AM24">
-        <v>-70</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>43495</v>
+        <v>43851</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3281,28 +3254,28 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3314,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3326,87 +3299,87 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>14.6</v>
+        <v>11.2</v>
       </c>
       <c r="V25">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X25">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>7</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>30</v>
+        <v>-90</v>
       </c>
       <c r="AL25">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AM25">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>43498</v>
+        <v>43862</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3421,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3445,72 +3418,63 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>4</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF26">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ26">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK26">
-        <v>-70</v>
+        <v>-300</v>
       </c>
       <c r="AL26">
-        <v>-80</v>
+        <v>-260</v>
       </c>
       <c r="AM26">
-        <v>110</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>43505</v>
+        <v>43876</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3519,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3534,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3555,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3564,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>18.4</v>
+        <v>9</v>
       </c>
       <c r="V27">
-        <v>12.5</v>
+        <v>1.1</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>2</v>
@@ -3600,51 +3564,51 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <v>-1</v>
       </c>
       <c r="AJ27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="AL27">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="AM27">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
-        <v>43520</v>
+        <v>43883</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3656,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3671,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3683,19 +3647,19 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3704,60 +3668,51 @@
         <v>2</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>0.1</v>
-      </c>
-      <c r="AD28">
-        <v>0.1</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>-140</v>
+        <v>100</v>
       </c>
       <c r="AL28">
-        <v>-120</v>
+        <v>100</v>
       </c>
       <c r="AM28">
-        <v>-70</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
-        <v>43523</v>
+        <v>43890</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3775,58 +3730,58 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>0.4</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>18.4</v>
-      </c>
-      <c r="V29">
-        <v>0.9</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1.9</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>2</v>
-      </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3838,51 +3793,51 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM29">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
-        <v>43526</v>
+        <v>43897</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3897,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3909,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3921,1081 +3876,55 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>14</v>
-      </c>
-      <c r="AC30">
-        <v>0.1</v>
-      </c>
-      <c r="AD30">
-        <v>0.1</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>-1</v>
       </c>
       <c r="AJ30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>-180</v>
+        <v>50</v>
       </c>
       <c r="AL30">
-        <v>-210</v>
+        <v>40</v>
       </c>
       <c r="AM30">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43533</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>90</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>30.2</v>
-      </c>
-      <c r="V31">
-        <v>0.8</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>3.1</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>17</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>11</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>2</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AJ31">
-        <v>-1</v>
-      </c>
-      <c r="AK31">
-        <v>-90</v>
-      </c>
-      <c r="AL31">
-        <v>-50</v>
-      </c>
-      <c r="AM31">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C32">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>3</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
-      <c r="AK32">
-        <v>-10</v>
-      </c>
-      <c r="AL32">
-        <v>-50</v>
-      </c>
-      <c r="AM32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
-      <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43560</v>
-      </c>
-      <c r="C33">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>83</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>35.8</v>
-      </c>
-      <c r="V33">
-        <v>0.3</v>
-      </c>
-      <c r="W33">
-        <v>8</v>
-      </c>
-      <c r="X33">
-        <v>4.4</v>
-      </c>
-      <c r="Y33">
-        <v>3</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <v>12</v>
-      </c>
-      <c r="AC33">
-        <v>0.1</v>
-      </c>
-      <c r="AD33">
-        <v>0.1</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>15</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>1</v>
-      </c>
-      <c r="AI33">
-        <v>-2</v>
-      </c>
-      <c r="AJ33">
-        <v>-2</v>
-      </c>
-      <c r="AK33">
-        <v>-200</v>
-      </c>
-      <c r="AL33">
-        <v>-240</v>
-      </c>
-      <c r="AM33">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C34">
-        <v>34</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>35.2</v>
-      </c>
-      <c r="V34">
-        <v>0.3</v>
-      </c>
-      <c r="W34">
-        <v>8</v>
-      </c>
-      <c r="X34">
-        <v>4.4</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <v>3</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>20</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>19</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>2</v>
-      </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
-      <c r="AJ34">
-        <v>-1</v>
-      </c>
-      <c r="AK34">
-        <v>-40</v>
-      </c>
-      <c r="AL34">
-        <v>-150</v>
-      </c>
-      <c r="AM34">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43575</v>
-      </c>
-      <c r="C35">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>15</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>-2</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>-50</v>
-      </c>
-      <c r="AL35">
-        <v>20</v>
-      </c>
-      <c r="AM35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43578</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>18</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>10</v>
-      </c>
-      <c r="AL36">
-        <v>-70</v>
-      </c>
-      <c r="AM36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43582</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
-      <c r="Z37">
-        <v>3</v>
-      </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
-      <c r="AK37">
-        <v>130</v>
-      </c>
-      <c r="AL37">
-        <v>50</v>
-      </c>
-      <c r="AM37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43589</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>19</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>-3</v>
-      </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>50</v>
-      </c>
-      <c r="AM38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43597</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <v>10</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>2</v>
-      </c>
-      <c r="AK39">
-        <v>200</v>
-      </c>
-      <c r="AL39">
-        <v>40</v>
-      </c>
-      <c r="AM39">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
